--- a/data/league_data/germany/19/germany_std.xlsx
+++ b/data/league_data/germany/19/germany_std.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/germany/19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{490F146F-0156-6E47-8646-48E54FDC39D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E8F48D-03E6-564B-B328-A99BEC91518F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14700"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -994,9 +994,6 @@
     <t>Kasim Nuhu</t>
   </si>
   <si>
-    <t>Rafinha</t>
-  </si>
-  <si>
     <t>Robin Zentner</t>
   </si>
   <si>
@@ -1538,12 +1535,15 @@
   </si>
   <si>
     <t>Jozo Stanić</t>
+  </si>
+  <si>
+    <t>Rafinha de Souza</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2401,11 +2401,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA475"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
+      <selection activeCell="A289" sqref="A289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26340,7 +26340,7 @@
     </row>
     <row r="289" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
-        <v>324</v>
+        <v>505</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>23</v>
@@ -26423,7 +26423,7 @@
     </row>
     <row r="290" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>57</v>
@@ -26506,7 +26506,7 @@
     </row>
     <row r="291" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>64</v>
@@ -26589,7 +26589,7 @@
     </row>
     <row r="292" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A292" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B292" s="2" t="s">
         <v>49</v>
@@ -26672,7 +26672,7 @@
     </row>
     <row r="293" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A293" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>33</v>
@@ -26755,7 +26755,7 @@
     </row>
     <row r="294" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>29</v>
@@ -26838,7 +26838,7 @@
     </row>
     <row r="295" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>47</v>
@@ -26921,7 +26921,7 @@
     </row>
     <row r="296" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>29</v>
@@ -27004,7 +27004,7 @@
     </row>
     <row r="297" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>52</v>
@@ -27087,7 +27087,7 @@
     </row>
     <row r="298" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>33</v>
@@ -27170,7 +27170,7 @@
     </row>
     <row r="299" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B299" s="2" t="s">
         <v>39</v>
@@ -27253,7 +27253,7 @@
     </row>
     <row r="300" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B300" s="2" t="s">
         <v>31</v>
@@ -27336,7 +27336,7 @@
     </row>
     <row r="301" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>27</v>
@@ -27419,7 +27419,7 @@
     </row>
     <row r="302" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>31</v>
@@ -27502,7 +27502,7 @@
     </row>
     <row r="303" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>49</v>
@@ -27585,7 +27585,7 @@
     </row>
     <row r="304" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>39</v>
@@ -27668,7 +27668,7 @@
     </row>
     <row r="305" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>64</v>
@@ -27751,7 +27751,7 @@
     </row>
     <row r="306" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A306" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B306" s="2" t="s">
         <v>52</v>
@@ -27834,7 +27834,7 @@
     </row>
     <row r="307" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A307" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B307" s="2" t="s">
         <v>23</v>
@@ -27917,7 +27917,7 @@
     </row>
     <row r="308" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A308" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>57</v>
@@ -28000,7 +28000,7 @@
     </row>
     <row r="309" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A309" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B309" s="2" t="s">
         <v>35</v>
@@ -28083,7 +28083,7 @@
     </row>
     <row r="310" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A310" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>47</v>
@@ -28166,7 +28166,7 @@
     </row>
     <row r="311" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A311" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>25</v>
@@ -28249,7 +28249,7 @@
     </row>
     <row r="312" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A312" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>21</v>
@@ -28332,7 +28332,7 @@
     </row>
     <row r="313" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A313" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B313" s="2" t="s">
         <v>49</v>
@@ -28415,7 +28415,7 @@
     </row>
     <row r="314" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A314" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B314" s="2" t="s">
         <v>52</v>
@@ -28498,7 +28498,7 @@
     </row>
     <row r="315" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A315" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>29</v>
@@ -28581,7 +28581,7 @@
     </row>
     <row r="316" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A316" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>21</v>
@@ -28664,7 +28664,7 @@
     </row>
     <row r="317" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A317" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>74</v>
@@ -28747,7 +28747,7 @@
     </row>
     <row r="318" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A318" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>70</v>
@@ -28830,7 +28830,7 @@
     </row>
     <row r="319" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A319" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>74</v>
@@ -28913,7 +28913,7 @@
     </row>
     <row r="320" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A320" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>47</v>
@@ -28996,7 +28996,7 @@
     </row>
     <row r="321" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A321" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>21</v>
@@ -29079,7 +29079,7 @@
     </row>
     <row r="322" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A322" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B322" s="2" t="s">
         <v>39</v>
@@ -29162,7 +29162,7 @@
     </row>
     <row r="323" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A323" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B323" s="2" t="s">
         <v>74</v>
@@ -29245,7 +29245,7 @@
     </row>
     <row r="324" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A324" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>74</v>
@@ -29328,7 +29328,7 @@
     </row>
     <row r="325" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A325" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>57</v>
@@ -29411,7 +29411,7 @@
     </row>
     <row r="326" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A326" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>33</v>
@@ -29494,7 +29494,7 @@
     </row>
     <row r="327" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A327" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>31</v>
@@ -29577,7 +29577,7 @@
     </row>
     <row r="328" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A328" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B328" s="2" t="s">
         <v>27</v>
@@ -29660,7 +29660,7 @@
     </row>
     <row r="329" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A329" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>35</v>
@@ -29743,7 +29743,7 @@
     </row>
     <row r="330" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A330" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>21</v>
@@ -29826,7 +29826,7 @@
     </row>
     <row r="331" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A331" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>76</v>
@@ -29909,7 +29909,7 @@
     </row>
     <row r="332" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A332" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>27</v>
@@ -29992,7 +29992,7 @@
     </row>
     <row r="333" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A333" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>33</v>
@@ -30075,7 +30075,7 @@
     </row>
     <row r="334" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A334" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B334" s="2" t="s">
         <v>57</v>
@@ -30158,7 +30158,7 @@
     </row>
     <row r="335" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A335" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B335" s="2" t="s">
         <v>23</v>
@@ -30241,7 +30241,7 @@
     </row>
     <row r="336" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A336" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B336" s="2" t="s">
         <v>23</v>
@@ -30324,7 +30324,7 @@
     </row>
     <row r="337" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A337" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B337" s="2" t="s">
         <v>52</v>
@@ -30490,7 +30490,7 @@
     </row>
     <row r="339" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A339" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>35</v>
@@ -30573,7 +30573,7 @@
     </row>
     <row r="340" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A340" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B340" s="2" t="s">
         <v>47</v>
@@ -30656,7 +30656,7 @@
     </row>
     <row r="341" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A341" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>64</v>
@@ -30739,7 +30739,7 @@
     </row>
     <row r="342" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A342" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B342" s="2" t="s">
         <v>25</v>
@@ -30822,7 +30822,7 @@
     </row>
     <row r="343" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A343" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B343" s="2" t="s">
         <v>49</v>
@@ -30905,7 +30905,7 @@
     </row>
     <row r="344" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A344" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>74</v>
@@ -30988,7 +30988,7 @@
     </row>
     <row r="345" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A345" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B345" s="2" t="s">
         <v>25</v>
@@ -31071,7 +31071,7 @@
     </row>
     <row r="346" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A346" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>64</v>
@@ -31154,7 +31154,7 @@
     </row>
     <row r="347" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A347" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>31</v>
@@ -31237,7 +31237,7 @@
     </row>
     <row r="348" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A348" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B348" s="2" t="s">
         <v>27</v>
@@ -31320,7 +31320,7 @@
     </row>
     <row r="349" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A349" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B349" s="2" t="s">
         <v>27</v>
@@ -31403,7 +31403,7 @@
     </row>
     <row r="350" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A350" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B350" s="2" t="s">
         <v>35</v>
@@ -31486,7 +31486,7 @@
     </row>
     <row r="351" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A351" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B351" s="2" t="s">
         <v>33</v>
@@ -31569,7 +31569,7 @@
     </row>
     <row r="352" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A352" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B352" s="2" t="s">
         <v>31</v>
@@ -31652,7 +31652,7 @@
     </row>
     <row r="353" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A353" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>64</v>
@@ -31735,7 +31735,7 @@
     </row>
     <row r="354" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A354" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B354" s="2" t="s">
         <v>39</v>
@@ -31818,7 +31818,7 @@
     </row>
     <row r="355" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A355" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B355" s="2" t="s">
         <v>70</v>
@@ -31901,7 +31901,7 @@
     </row>
     <row r="356" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A356" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B356" s="2" t="s">
         <v>33</v>
@@ -31984,7 +31984,7 @@
     </row>
     <row r="357" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A357" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B357" s="2" t="s">
         <v>29</v>
@@ -32067,7 +32067,7 @@
     </row>
     <row r="358" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A358" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B358" s="2" t="s">
         <v>39</v>
@@ -32150,7 +32150,7 @@
     </row>
     <row r="359" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A359" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B359" s="2" t="s">
         <v>47</v>
@@ -32233,7 +32233,7 @@
     </row>
     <row r="360" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A360" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B360" s="2" t="s">
         <v>21</v>
@@ -32316,7 +32316,7 @@
     </row>
     <row r="361" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A361" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B361" s="2" t="s">
         <v>35</v>
@@ -32399,7 +32399,7 @@
     </row>
     <row r="362" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A362" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B362" s="2" t="s">
         <v>49</v>
@@ -32482,7 +32482,7 @@
     </row>
     <row r="363" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A363" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B363" s="2" t="s">
         <v>74</v>
@@ -32565,7 +32565,7 @@
     </row>
     <row r="364" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A364" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B364" s="2" t="s">
         <v>35</v>
@@ -32648,7 +32648,7 @@
     </row>
     <row r="365" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A365" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B365" s="2" t="s">
         <v>74</v>
@@ -32731,7 +32731,7 @@
     </row>
     <row r="366" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A366" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B366" s="2" t="s">
         <v>76</v>
@@ -32814,7 +32814,7 @@
     </row>
     <row r="367" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A367" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B367" s="2" t="s">
         <v>47</v>
@@ -32897,7 +32897,7 @@
     </row>
     <row r="368" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A368" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B368" s="2" t="s">
         <v>35</v>
@@ -32980,7 +32980,7 @@
     </row>
     <row r="369" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A369" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B369" s="2" t="s">
         <v>29</v>
@@ -33063,7 +33063,7 @@
     </row>
     <row r="370" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A370" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B370" s="2" t="s">
         <v>70</v>
@@ -33146,7 +33146,7 @@
     </row>
     <row r="371" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A371" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B371" s="2" t="s">
         <v>64</v>
@@ -33312,7 +33312,7 @@
     </row>
     <row r="373" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A373" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B373" s="2" t="s">
         <v>21</v>
@@ -33395,7 +33395,7 @@
     </row>
     <row r="374" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A374" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B374" s="2" t="s">
         <v>76</v>
@@ -33478,7 +33478,7 @@
     </row>
     <row r="375" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A375" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B375" s="2" t="s">
         <v>64</v>
@@ -33561,7 +33561,7 @@
     </row>
     <row r="376" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A376" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B376" s="2" t="s">
         <v>57</v>
@@ -33644,7 +33644,7 @@
     </row>
     <row r="377" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A377" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B377" s="2" t="s">
         <v>25</v>
@@ -33727,7 +33727,7 @@
     </row>
     <row r="378" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A378" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B378" s="2" t="s">
         <v>70</v>
@@ -33810,7 +33810,7 @@
     </row>
     <row r="379" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A379" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B379" s="2" t="s">
         <v>57</v>
@@ -33893,7 +33893,7 @@
     </row>
     <row r="380" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A380" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B380" s="2" t="s">
         <v>57</v>
@@ -33976,7 +33976,7 @@
     </row>
     <row r="381" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A381" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B381" s="2" t="s">
         <v>64</v>
@@ -34059,7 +34059,7 @@
     </row>
     <row r="382" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A382" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B382" s="2" t="s">
         <v>76</v>
@@ -34142,7 +34142,7 @@
     </row>
     <row r="383" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A383" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B383" s="2" t="s">
         <v>74</v>
@@ -34225,7 +34225,7 @@
     </row>
     <row r="384" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A384" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B384" s="2" t="s">
         <v>49</v>
@@ -34308,7 +34308,7 @@
     </row>
     <row r="385" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A385" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B385" s="2" t="s">
         <v>39</v>
@@ -34391,7 +34391,7 @@
     </row>
     <row r="386" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A386" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B386" s="2" t="s">
         <v>52</v>
@@ -34474,7 +34474,7 @@
     </row>
     <row r="387" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A387" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B387" s="2" t="s">
         <v>25</v>
@@ -34557,7 +34557,7 @@
     </row>
     <row r="388" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A388" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B388" s="2" t="s">
         <v>31</v>
@@ -34723,7 +34723,7 @@
     </row>
     <row r="390" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A390" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B390" s="2" t="s">
         <v>76</v>
@@ -34806,7 +34806,7 @@
     </row>
     <row r="391" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A391" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B391" s="2" t="s">
         <v>29</v>
@@ -34889,7 +34889,7 @@
     </row>
     <row r="392" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A392" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B392" s="2" t="s">
         <v>64</v>
@@ -34972,7 +34972,7 @@
     </row>
     <row r="393" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A393" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B393" s="2" t="s">
         <v>70</v>
@@ -35055,7 +35055,7 @@
     </row>
     <row r="394" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A394" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B394" s="2" t="s">
         <v>31</v>
@@ -35138,7 +35138,7 @@
     </row>
     <row r="395" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A395" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B395" s="2" t="s">
         <v>21</v>
@@ -35221,7 +35221,7 @@
     </row>
     <row r="396" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A396" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B396" s="2" t="s">
         <v>74</v>
@@ -35304,7 +35304,7 @@
     </row>
     <row r="397" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A397" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B397" s="2" t="s">
         <v>74</v>
@@ -35387,7 +35387,7 @@
     </row>
     <row r="398" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A398" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B398" s="2" t="s">
         <v>35</v>
@@ -35470,7 +35470,7 @@
     </row>
     <row r="399" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A399" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B399" s="2" t="s">
         <v>33</v>
@@ -35553,7 +35553,7 @@
     </row>
     <row r="400" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A400" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B400" s="2" t="s">
         <v>52</v>
@@ -35636,7 +35636,7 @@
     </row>
     <row r="401" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A401" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B401" s="2" t="s">
         <v>44</v>
@@ -35719,7 +35719,7 @@
     </row>
     <row r="402" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A402" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B402" s="2" t="s">
         <v>44</v>
@@ -35802,7 +35802,7 @@
     </row>
     <row r="403" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A403" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B403" s="2" t="s">
         <v>44</v>
@@ -35885,7 +35885,7 @@
     </row>
     <row r="404" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A404" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B404" s="2" t="s">
         <v>49</v>
@@ -35968,7 +35968,7 @@
     </row>
     <row r="405" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A405" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B405" s="2" t="s">
         <v>74</v>
@@ -36051,7 +36051,7 @@
     </row>
     <row r="406" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A406" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B406" s="2" t="s">
         <v>74</v>
@@ -36134,7 +36134,7 @@
     </row>
     <row r="407" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A407" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B407" s="2" t="s">
         <v>21</v>
@@ -36217,7 +36217,7 @@
     </row>
     <row r="408" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A408" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B408" s="2" t="s">
         <v>57</v>
@@ -36300,7 +36300,7 @@
     </row>
     <row r="409" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A409" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B409" s="2" t="s">
         <v>23</v>
@@ -36383,7 +36383,7 @@
     </row>
     <row r="410" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A410" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B410" s="2" t="s">
         <v>47</v>
@@ -36466,7 +36466,7 @@
     </row>
     <row r="411" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A411" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B411" s="2" t="s">
         <v>64</v>
@@ -36549,7 +36549,7 @@
     </row>
     <row r="412" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A412" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B412" s="2" t="s">
         <v>35</v>
@@ -36632,7 +36632,7 @@
     </row>
     <row r="413" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A413" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B413" s="2" t="s">
         <v>35</v>
@@ -36715,7 +36715,7 @@
     </row>
     <row r="414" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A414" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B414" s="2" t="s">
         <v>76</v>
@@ -36798,7 +36798,7 @@
     </row>
     <row r="415" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A415" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B415" s="2" t="s">
         <v>70</v>
@@ -36881,7 +36881,7 @@
     </row>
     <row r="416" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A416" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B416" s="2" t="s">
         <v>39</v>
@@ -36964,7 +36964,7 @@
     </row>
     <row r="417" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A417" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B417" s="2" t="s">
         <v>31</v>
@@ -37047,7 +37047,7 @@
     </row>
     <row r="418" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A418" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B418" s="2" t="s">
         <v>35</v>
@@ -37130,7 +37130,7 @@
     </row>
     <row r="419" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A419" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B419" s="2" t="s">
         <v>52</v>
@@ -37213,7 +37213,7 @@
     </row>
     <row r="420" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A420" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B420" s="2" t="s">
         <v>64</v>
@@ -37296,7 +37296,7 @@
     </row>
     <row r="421" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A421" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B421" s="2" t="s">
         <v>57</v>
@@ -37379,7 +37379,7 @@
     </row>
     <row r="422" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A422" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B422" s="2" t="s">
         <v>57</v>
@@ -37462,7 +37462,7 @@
     </row>
     <row r="423" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A423" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B423" s="2" t="s">
         <v>57</v>
@@ -37545,7 +37545,7 @@
     </row>
     <row r="424" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A424" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B424" s="2" t="s">
         <v>74</v>
@@ -37628,7 +37628,7 @@
     </row>
     <row r="425" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A425" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B425" s="2" t="s">
         <v>31</v>
@@ -37711,7 +37711,7 @@
     </row>
     <row r="426" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A426" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B426" s="2" t="s">
         <v>49</v>
@@ -37877,7 +37877,7 @@
     </row>
     <row r="428" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A428" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B428" s="2" t="s">
         <v>21</v>
@@ -37960,7 +37960,7 @@
     </row>
     <row r="429" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A429" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B429" s="2" t="s">
         <v>74</v>
@@ -38043,7 +38043,7 @@
     </row>
     <row r="430" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A430" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B430" s="2" t="s">
         <v>21</v>
@@ -38126,7 +38126,7 @@
     </row>
     <row r="431" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A431" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B431" s="2" t="s">
         <v>27</v>
@@ -38209,7 +38209,7 @@
     </row>
     <row r="432" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A432" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B432" s="2" t="s">
         <v>39</v>
@@ -38292,7 +38292,7 @@
     </row>
     <row r="433" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A433" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B433" s="2" t="s">
         <v>23</v>
@@ -38375,7 +38375,7 @@
     </row>
     <row r="434" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A434" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B434" s="2" t="s">
         <v>64</v>
@@ -38458,7 +38458,7 @@
     </row>
     <row r="435" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A435" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B435" s="2" t="s">
         <v>76</v>
@@ -38541,7 +38541,7 @@
     </row>
     <row r="436" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A436" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B436" s="2" t="s">
         <v>31</v>
@@ -38624,7 +38624,7 @@
     </row>
     <row r="437" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A437" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B437" s="2" t="s">
         <v>35</v>
@@ -38707,7 +38707,7 @@
     </row>
     <row r="438" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A438" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B438" s="2" t="s">
         <v>44</v>
@@ -38790,7 +38790,7 @@
     </row>
     <row r="439" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A439" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B439" s="2" t="s">
         <v>76</v>
@@ -38873,7 +38873,7 @@
     </row>
     <row r="440" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A440" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B440" s="2" t="s">
         <v>49</v>
@@ -38956,7 +38956,7 @@
     </row>
     <row r="441" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A441" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B441" s="2" t="s">
         <v>27</v>
@@ -39039,7 +39039,7 @@
     </row>
     <row r="442" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A442" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B442" s="2" t="s">
         <v>23</v>
@@ -39122,7 +39122,7 @@
     </row>
     <row r="443" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A443" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B443" s="2" t="s">
         <v>49</v>
@@ -39205,7 +39205,7 @@
     </row>
     <row r="444" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A444" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B444" s="2" t="s">
         <v>29</v>
@@ -39288,7 +39288,7 @@
     </row>
     <row r="445" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A445" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B445" s="2" t="s">
         <v>33</v>
@@ -39371,7 +39371,7 @@
     </row>
     <row r="446" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A446" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B446" s="2" t="s">
         <v>27</v>
@@ -39454,7 +39454,7 @@
     </row>
     <row r="447" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A447" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B447" s="2" t="s">
         <v>70</v>
@@ -39537,7 +39537,7 @@
     </row>
     <row r="448" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A448" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B448" s="2" t="s">
         <v>29</v>
@@ -39620,7 +39620,7 @@
     </row>
     <row r="449" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A449" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B449" s="2" t="s">
         <v>29</v>
@@ -39703,7 +39703,7 @@
     </row>
     <row r="450" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A450" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B450" s="2" t="s">
         <v>25</v>
@@ -39786,7 +39786,7 @@
     </row>
     <row r="451" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A451" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B451" s="2" t="s">
         <v>31</v>
@@ -39869,7 +39869,7 @@
     </row>
     <row r="452" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A452" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B452" s="2" t="s">
         <v>27</v>
@@ -39952,7 +39952,7 @@
     </row>
     <row r="453" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A453" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B453" s="2" t="s">
         <v>21</v>
@@ -40035,7 +40035,7 @@
     </row>
     <row r="454" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A454" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B454" s="2" t="s">
         <v>70</v>
@@ -40118,7 +40118,7 @@
     </row>
     <row r="455" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A455" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B455" s="2" t="s">
         <v>39</v>
@@ -40201,7 +40201,7 @@
     </row>
     <row r="456" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A456" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B456" s="2" t="s">
         <v>39</v>
@@ -40284,7 +40284,7 @@
     </row>
     <row r="457" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A457" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B457" s="2" t="s">
         <v>47</v>
@@ -40367,7 +40367,7 @@
     </row>
     <row r="458" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A458" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B458" s="2" t="s">
         <v>21</v>
@@ -40450,7 +40450,7 @@
     </row>
     <row r="459" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A459" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B459" s="2" t="s">
         <v>21</v>
@@ -40533,7 +40533,7 @@
     </row>
     <row r="460" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A460" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B460" s="2" t="s">
         <v>35</v>
@@ -40616,7 +40616,7 @@
     </row>
     <row r="461" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A461" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B461" s="2" t="s">
         <v>21</v>
@@ -40699,7 +40699,7 @@
     </row>
     <row r="462" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A462" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B462" s="2" t="s">
         <v>57</v>
@@ -40782,7 +40782,7 @@
     </row>
     <row r="463" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A463" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B463" s="2" t="s">
         <v>39</v>
@@ -40865,7 +40865,7 @@
     </row>
     <row r="464" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A464" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B464" s="2" t="s">
         <v>49</v>
@@ -40948,7 +40948,7 @@
     </row>
     <row r="465" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A465" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B465" s="2" t="s">
         <v>64</v>
@@ -41031,7 +41031,7 @@
     </row>
     <row r="466" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A466" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B466" s="2" t="s">
         <v>57</v>
@@ -41114,7 +41114,7 @@
     </row>
     <row r="467" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A467" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B467" s="2" t="s">
         <v>35</v>
@@ -41197,7 +41197,7 @@
     </row>
     <row r="468" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A468" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B468" s="2" t="s">
         <v>23</v>
@@ -41280,7 +41280,7 @@
     </row>
     <row r="469" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A469" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B469" s="2" t="s">
         <v>76</v>
@@ -41363,7 +41363,7 @@
     </row>
     <row r="470" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A470" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B470" s="2" t="s">
         <v>35</v>
@@ -41446,7 +41446,7 @@
     </row>
     <row r="471" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A471" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B471" s="2" t="s">
         <v>29</v>
@@ -41529,7 +41529,7 @@
     </row>
     <row r="472" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A472" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B472" s="2" t="s">
         <v>31</v>
@@ -41612,7 +41612,7 @@
     </row>
     <row r="473" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A473" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B473" s="2" t="s">
         <v>74</v>
@@ -41695,7 +41695,7 @@
     </row>
     <row r="474" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A474" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B474" s="2" t="s">
         <v>23</v>
@@ -41778,7 +41778,7 @@
     </row>
     <row r="475" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A475" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B475" s="2" t="s">
         <v>64</v>
